--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_aggregated.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_aggregated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,144 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>НФ-00002222,ЛГ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Лист 3 мм г/к, 09Г2С</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ГМ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Лист 30 мм г/к, сталь 20</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ЛГ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Лист 30 мм г/к, сталь 20</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>НФ-00002224_0.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Круг 25 мм, 30ХГСА</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вал прецизионный 30 мм</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1м,Р</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Вал прецизионный 30 мм</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_aggregated.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_aggregated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Примечание</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Материалы</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Общее количество</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Название сделки</t>
         </is>
@@ -463,21 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>НФ-00002221_2.2м,Р,Т,Ф</t>
+          <t>ИНРТ.100.01.01.001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Труба 40х40х2, сталь 20</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>Борт</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ЛГ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Лист 30 мм г/к, сталь 20</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -486,21 +506,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>НФ-00002222,ЛГ</t>
+          <t>ИНРТ.100.01.01.002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лист 3 мм г/к, 09Г2С</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>Подкос</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>НФ-00002221_2.2м,Р,Т,Ф</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Труба 40х40х2, сталь 20</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -509,21 +539,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>НФ-00002223,ГМ</t>
+          <t>ИНРТ.100.01.01.003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Лист 30 мм г/к, сталь 20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>Косынка</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>НФ-00002222,ЛГ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Лист 3 мм г/к, 09Г2С</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -532,21 +572,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>НФ-00002223,ЛГ</t>
+          <t>ИНРТ.100.01.01.003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Лист 30 мм г/к, сталь 20</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>Перемычка</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1м,Р</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Вал прецизионный 30 мм</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -555,21 +605,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ИНРТ.100.01.02.001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Палец</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>НФ-00002224_0.2м,Р,Т</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Круг 25 мм, 30ХГСА</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -578,21 +638,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>НФ-00002225_1.2м,Р,Т</t>
+          <t>ИНРТ.100.02.00.001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Вал прецизионный 30 мм</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>Фланец</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ГМ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Лист 30 мм г/к, сталь 20</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
@@ -601,21 +671,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>НФ-00002225_1м,Р</t>
+          <t>ИНРТ.100.02.00.002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Шток</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Вал прецизионный 30 мм</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>wer</t>
         </is>
